--- a/Income/MGM_inc.xlsx
+++ b/Income/MGM_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.0965</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.1704</v>
+        <v>-0.0878</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.2703</v>
+        <v>0.0745</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.3462</v>
+        <v>0.1984</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3849</v>
+        <v>0.2477</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2719</v>
@@ -2114,7 +2114,7 @@
         <v>0.3776</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4026</v>
+        <v>0.4025</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.3055</v>
@@ -2241,7 +2241,7 @@
         <v>0.26</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.3044</v>
+        <v>0.3045</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.2207</v>
@@ -2362,16 +2362,16 @@
         <v>-0.1931</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.2148</v>
+        <v>0.2139</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.2176</v>
+        <v>0.2169</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.2368</v>
+        <v>0.2363</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1591</v>
+        <v>0.1586</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>-0.0001</v>
@@ -2489,13 +2489,13 @@
         <v>-0.328</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-0.0916</v>
+        <v>-0.0917</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-0.0812</v>
+        <v>-0.0813</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.0303</v>
+        <v>0.0302</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.0833</v>
@@ -3505,16 +3505,16 @@
         <v>-0.1323</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>-0.0099</v>
+        <v>0.3822</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.0748</v>
+        <v>0.372</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.171</v>
+        <v>0.3954</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2012</v>
+        <v>0.4096</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.2069</v>
@@ -3632,16 +3632,16 @@
         <v>-0.2768</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>-0.1066</v>
+        <v>-0.1068</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>-0.0198</v>
+        <v>-0.0199</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.0826</v>
+        <v>0.0825</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1404</v>
+        <v>0.1403</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.1318</v>
